--- a/circuitInformation/InputInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/InputInformation1-1-1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B2848-16C5-0043-BB87-C18044539DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465CA42-D200-6C43-8224-75A164A6A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,10 +462,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/circuitInformation/InputInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/InputInformation1-1-1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5465CA42-D200-6C43-8224-75A164A6A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFF4C5D-CD6D-A546-9128-09CBC4F07255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Continuous</t>
   </si>
   <si>
-    <t>Square Wave</t>
-  </si>
-  <si>
     <t>0.1e-9</t>
   </si>
   <si>
@@ -95,6 +92,17 @@
   </si>
   <si>
     <t>Amplitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.02e-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gaussian Pluse</t>
+  </si>
+  <si>
+    <t>0.04e-9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -432,20 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -465,20 +473,6 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
         <v>15</v>
       </c>
     </row>
@@ -491,10 +485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -515,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -533,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -547,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>0.5</v>
@@ -556,48 +550,28 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Square Wave,Square Wave(Plus Minus),Sinusoidal,Gaussian Pluse"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/circuitInformation/InputInformation1-1-1-1-1.xlsx
+++ b/circuitInformation/InputInformation1-1-1-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soumajinno/Documents/GitHub/FDTD/circuitInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFF4C5D-CD6D-A546-9128-09CBC4F07255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EED923-3CB6-8244-8209-0F64BB25E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="977" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>15</v>
